--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1607.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1607.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165729546863185</v>
+        <v>0.5526037812232971</v>
       </c>
       <c r="B1">
-        <v>2.325627195820832</v>
+        <v>1.083119034767151</v>
       </c>
       <c r="C1">
-        <v>5.067207189758876</v>
+        <v>5.09970760345459</v>
       </c>
       <c r="D1">
-        <v>2.381477955944459</v>
+        <v>3.767892837524414</v>
       </c>
       <c r="E1">
-        <v>1.05547485730762</v>
+        <v>1.131724238395691</v>
       </c>
     </row>
   </sheetData>
